--- a/input_data/simple_hydropower_river_system.xlsx
+++ b/input_data/simple_hydropower_river_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDA891A-F409-45B9-A473-105DAF821173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CCECFC-65C3-4AA0-9CA5-04E286D9640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="9" activeTab="18" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -29,17 +29,18 @@
     <sheet name="inflow_blocks" sheetId="22" r:id="rId14"/>
     <sheet name="price" sheetId="4" r:id="rId15"/>
     <sheet name="markets" sheetId="5" r:id="rId16"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId18"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
-    <sheet name="reserve_activation_price" sheetId="27" r:id="rId20"/>
-    <sheet name="risk" sheetId="17" r:id="rId21"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
-    <sheet name="constraints" sheetId="14" r:id="rId25"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId27"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId17"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId18"/>
+    <sheet name="bid_slots" sheetId="28" r:id="rId19"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId20"/>
+    <sheet name="reserve_activation_price" sheetId="27" r:id="rId21"/>
+    <sheet name="risk" sheetId="17" r:id="rId22"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId23"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId24"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId25"/>
+    <sheet name="constraints" sheetId="14" r:id="rId26"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="183">
   <si>
     <t>node</t>
   </si>
@@ -457,9 +458,6 @@
     <t>node2</t>
   </si>
   <si>
-    <t>diff_coeff</t>
-  </si>
-  <si>
     <t>state_min</t>
   </si>
   <si>
@@ -524,6 +522,93 @@
   </si>
   <si>
     <t>heat_pump_1,s3</t>
+  </si>
+  <si>
+    <t>hydro1_res</t>
+  </si>
+  <si>
+    <t>hydro2_res</t>
+  </si>
+  <si>
+    <t>hydro3_res</t>
+  </si>
+  <si>
+    <t>hydro4_res</t>
+  </si>
+  <si>
+    <t>hydro5_res</t>
+  </si>
+  <si>
+    <t>hydro1</t>
+  </si>
+  <si>
+    <t>hydro2</t>
+  </si>
+  <si>
+    <t>hydro3</t>
+  </si>
+  <si>
+    <t>hydro4</t>
+  </si>
+  <si>
+    <t>hydro5</t>
+  </si>
+  <si>
+    <t>hydro1_spill</t>
+  </si>
+  <si>
+    <t>hydro2_spill</t>
+  </si>
+  <si>
+    <t>hydro3_spill</t>
+  </si>
+  <si>
+    <t>hydro4_spill</t>
+  </si>
+  <si>
+    <t>hydro5_spill</t>
+  </si>
+  <si>
+    <t>Water weight</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Head height</t>
+  </si>
+  <si>
+    <t>Energy, MJ</t>
+  </si>
+  <si>
+    <t>Energy, MWh</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>P for 1000 m3/s</t>
+  </si>
+  <si>
+    <t>E per hour</t>
+  </si>
+  <si>
+    <t>Water consumption per h</t>
+  </si>
+  <si>
+    <t>Res_max</t>
+  </si>
+  <si>
+    <t>Res_min</t>
+  </si>
+  <si>
+    <t>Max flow</t>
+  </si>
+  <si>
+    <t>min flow</t>
+  </si>
+  <si>
+    <t>hours operation</t>
   </si>
 </sst>
 </file>
@@ -901,213 +986,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39053E69-3A75-490E-847C-66A9CF6C1FC5}">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>44671</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>44671.041666666664</v>
+        <v>45383.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>44671.08333321759</v>
+        <v>45383.083333333336</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>44671.124999826388</v>
+        <v>45383.125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>44671.166666435187</v>
+        <v>45383.166666666664</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>44671.208333043978</v>
+        <v>45383.208333333336</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>44671.249999652777</v>
+        <v>45383.25</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>44671.291666261575</v>
+        <v>45383.291666666664</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>44671.333332870374</v>
+        <v>45383.333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>44671.374999479165</v>
+        <v>45383.375</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>44671.416666087964</v>
+        <v>45383.416666666664</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>44671.458332696762</v>
+        <v>45383.458333333336</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>44671.499999305554</v>
+        <v>45383.5</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>44671.541665914352</v>
+        <v>45383.541666666664</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>44671.583332523151</v>
+        <v>45383.583333333336</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>44671.624999131942</v>
+        <v>45383.625</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>44671.66666574074</v>
+        <v>45383.666666666664</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>44671.708332349539</v>
+        <v>45383.708333333336</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>44671.74999895833</v>
+        <v>45383.75</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>44671.791665567129</v>
+        <v>45383.791666666664</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>44671.833332175927</v>
+        <v>45383.833333333336</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>44671.874998784719</v>
+        <v>45383.875</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>44671.916665393517</v>
+        <v>45383.916666666664</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>44671.958332002316</v>
+        <v>45383.958333333336</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7">
+        <v>45384</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="7">
+        <v>45384.041666666664</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="7">
+        <v>45384.083333333336</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="7">
+        <v>45384.125</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="7">
+        <v>45384.166666666664</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7">
+        <v>45384.208333333336</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7">
+        <v>45384.25</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="7">
+        <v>45384.291666666664</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7">
+        <v>45384.333333333336</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="7">
+        <v>45384.375</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="7">
+        <v>45384.416666666664</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="7">
+        <v>45384.458333333336</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="7">
+        <v>45384.5</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="7">
+        <v>45384.541666666664</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="7">
+        <v>45384.583333333336</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="7">
+        <v>45384.625</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="7">
+        <v>45384.666666666664</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="7">
+        <v>45384.708333333336</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="7">
+        <v>45384.75</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="7">
+        <v>45384.791666666664</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="7">
+        <v>45384.833333333336</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="A47" s="7">
+        <v>45384.875</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+      <c r="A48" s="7">
+        <v>45384.916666666664</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+      <c r="A49" s="7">
+        <v>45384.958333333336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>45385.125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>45385.291666666664</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>45385.458333333336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>45385.625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>45385.791666666664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>45385.958333333336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>45386.125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>45386.291666666664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>45386.458333333336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>45386.625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>45386.791666666664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>45386.958333333336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>45387.958333333336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>45388.958333333336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>45389.958333333336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>45390.958333333336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>45391.958333333336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>45392.958333333336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>45393.958333333336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>45394.958333333336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>45395.958333333336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>45396.958333333336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>45397.958333333336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>45398.958333333336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>45399.958333333336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>45400.958333333336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>45401.958333333336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>45402.958333333336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>45403.958333333336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>45404.958333333336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>45405.958333333336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>45406.958333333336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>45407.958333333336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>45408.958333333336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>45409.958333333336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>45410.958333333336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>45411.958333333336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>45412.958333333336</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1116,24 +1439,166 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>31</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45383.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45383.083333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45383.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45383.166666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45383.208333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45383.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45383.291666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45383.333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45383.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45383.416666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45383.458333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45383.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45383.541666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45383.583333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45383.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45383.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45383.708333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45383.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45383.791666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45383.833333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45383.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45383.916666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45383.958333333336</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1651,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1682,7 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
+        <v>45383</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1239,7 +1704,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
+        <v>45383.041666666664</v>
       </c>
       <c r="B3">
         <v>0.4</v>
@@ -1259,7 +1724,7 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v>45383.083333333336</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -1279,7 +1744,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
+        <v>45383.125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1299,7 +1764,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
+        <v>45383.166666666664</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -1319,7 +1784,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
+        <v>45383.208333333336</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1339,7 +1804,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
+        <v>45383.25</v>
       </c>
       <c r="B8">
         <v>0.1</v>
@@ -1359,7 +1824,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
+        <v>45383.291666666664</v>
       </c>
       <c r="B9">
         <v>0.6</v>
@@ -1379,7 +1844,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
+        <v>45383.333333333336</v>
       </c>
       <c r="B10">
         <v>0.4</v>
@@ -1399,7 +1864,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
+        <v>45383.375</v>
       </c>
       <c r="B11">
         <v>0.6</v>
@@ -1419,7 +1884,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
+        <v>45383.416666666664</v>
       </c>
       <c r="B12">
         <v>0.7</v>
@@ -1439,7 +1904,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
+        <v>45383.458333333336</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -1459,7 +1924,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
+        <v>45383.5</v>
       </c>
       <c r="B14">
         <v>0.1</v>
@@ -1479,7 +1944,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
+        <v>45383.541666666664</v>
       </c>
       <c r="B15">
         <v>0.8</v>
@@ -1499,7 +1964,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
+        <v>45383.583333333336</v>
       </c>
       <c r="B16">
         <v>0.9</v>
@@ -1519,7 +1984,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
+        <v>45383.625</v>
       </c>
       <c r="B17">
         <v>0.2</v>
@@ -1539,7 +2004,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
+        <v>45383.666666666664</v>
       </c>
       <c r="B18">
         <v>0.4</v>
@@ -1559,7 +2024,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
+        <v>45383.708333333336</v>
       </c>
       <c r="B19">
         <v>0.6</v>
@@ -1579,7 +2044,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
+        <v>45383.75</v>
       </c>
       <c r="B20">
         <v>0.7</v>
@@ -1599,7 +2064,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
+        <v>45383.791666666664</v>
       </c>
       <c r="B21">
         <v>0.7</v>
@@ -1619,7 +2084,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
+        <v>45383.833333333336</v>
       </c>
       <c r="B22">
         <v>0.6</v>
@@ -1639,7 +2104,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
+        <v>45383.875</v>
       </c>
       <c r="B23">
         <v>0.7</v>
@@ -1659,7 +2124,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
+        <v>45383.916666666664</v>
       </c>
       <c r="B24">
         <v>0.1</v>
@@ -1679,7 +2144,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
+        <v>45383.958333333336</v>
       </c>
       <c r="B25">
         <v>0.6</v>
@@ -1744,7 +2209,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
+        <v>45383</v>
       </c>
       <c r="B2">
         <v>-5</v>
@@ -1771,7 +2236,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
+        <v>45383.041666666664</v>
       </c>
       <c r="B3">
         <v>-5</v>
@@ -1799,7 +2264,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v>45383.083333333336</v>
       </c>
       <c r="B4">
         <v>-4</v>
@@ -1827,7 +2292,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
+        <v>45383.125</v>
       </c>
       <c r="B5">
         <v>-2</v>
@@ -1855,7 +2320,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
+        <v>45383.166666666664</v>
       </c>
       <c r="B6">
         <v>-7</v>
@@ -1883,7 +2348,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
+        <v>45383.208333333336</v>
       </c>
       <c r="B7">
         <v>-5</v>
@@ -1911,7 +2376,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
+        <v>45383.25</v>
       </c>
       <c r="B8">
         <v>-14</v>
@@ -1939,7 +2404,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
+        <v>45383.291666666664</v>
       </c>
       <c r="B9">
         <v>-20</v>
@@ -1967,7 +2432,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
+        <v>45383.333333333336</v>
       </c>
       <c r="B10">
         <v>-13</v>
@@ -1995,7 +2460,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
+        <v>45383.375</v>
       </c>
       <c r="B11">
         <v>-12</v>
@@ -2023,7 +2488,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
+        <v>45383.416666666664</v>
       </c>
       <c r="B12">
         <v>-13</v>
@@ -2051,7 +2516,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
+        <v>45383.458333333336</v>
       </c>
       <c r="B13">
         <v>-14</v>
@@ -2079,7 +2544,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
+        <v>45383.5</v>
       </c>
       <c r="B14">
         <v>-18</v>
@@ -2107,7 +2572,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
+        <v>45383.541666666664</v>
       </c>
       <c r="B15">
         <v>-14</v>
@@ -2135,7 +2600,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
+        <v>45383.583333333336</v>
       </c>
       <c r="B16">
         <v>-15</v>
@@ -2163,7 +2628,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
+        <v>45383.625</v>
       </c>
       <c r="B17">
         <v>-14</v>
@@ -2191,7 +2656,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
+        <v>45383.666666666664</v>
       </c>
       <c r="B18">
         <v>-20</v>
@@ -2219,7 +2684,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
+        <v>45383.708333333336</v>
       </c>
       <c r="B19">
         <v>-20</v>
@@ -2247,7 +2712,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
+        <v>45383.75</v>
       </c>
       <c r="B20">
         <v>-20</v>
@@ -2275,7 +2740,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
+        <v>45383.791666666664</v>
       </c>
       <c r="B21">
         <v>-20</v>
@@ -2303,7 +2768,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
+        <v>45383.833333333336</v>
       </c>
       <c r="B22">
         <v>-16</v>
@@ -2331,7 +2796,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
+        <v>45383.875</v>
       </c>
       <c r="B23">
         <v>-14</v>
@@ -2359,7 +2824,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
+        <v>45383.916666666664</v>
       </c>
       <c r="B24">
         <v>-11</v>
@@ -2387,7 +2852,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
+        <v>45383.958333333336</v>
       </c>
       <c r="B25">
         <v>-9</v>
@@ -2537,7 +3002,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
+        <v>45383</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -2546,7 +3011,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
+        <v>45383.041666666664</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -2555,7 +3020,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v>45383.083333333336</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -2564,7 +3029,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
+        <v>45383.125</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -2573,7 +3038,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
+        <v>45383.166666666664</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -2582,7 +3047,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
+        <v>45383.208333333336</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -2591,7 +3056,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
+        <v>45383.25</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -2600,7 +3065,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
+        <v>45383.291666666664</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -2609,7 +3074,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
+        <v>45383.333333333336</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -2618,7 +3083,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
+        <v>45383.375</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -2627,7 +3092,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
+        <v>45383.416666666664</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -2636,7 +3101,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
+        <v>45383.458333333336</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2645,7 +3110,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
+        <v>45383.5</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -2654,7 +3119,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
+        <v>45383.541666666664</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -2663,7 +3128,7 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
+        <v>45383.583333333336</v>
       </c>
       <c r="B16">
         <v>12</v>
@@ -2672,7 +3137,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
+        <v>45383.625</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -2681,7 +3146,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
+        <v>45383.666666666664</v>
       </c>
       <c r="B18">
         <v>12</v>
@@ -2690,7 +3155,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
+        <v>45383.708333333336</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -2699,7 +3164,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
+        <v>45383.75</v>
       </c>
       <c r="B20">
         <v>12</v>
@@ -2708,7 +3173,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
+        <v>45383.791666666664</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -2717,7 +3182,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
+        <v>45383.833333333336</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -2726,7 +3191,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
+        <v>45383.875</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -2735,7 +3200,7 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
+        <v>45383.916666666664</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -2744,7 +3209,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
+        <v>45383.958333333336</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -2954,855 +3419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2">
-        <v>0.3</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2">
-        <v>0.2</v>
-      </c>
-      <c r="F2">
-        <v>0.3</v>
-      </c>
-      <c r="G2">
-        <v>0.2</v>
-      </c>
-      <c r="H2">
-        <v>0.2</v>
-      </c>
-      <c r="I2">
-        <v>0.3</v>
-      </c>
-      <c r="J2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0.3</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>0.2</v>
-      </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
-      <c r="G3">
-        <v>0.2</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="I3">
-        <v>0.3</v>
-      </c>
-      <c r="J3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-      <c r="F4">
-        <v>0.3</v>
-      </c>
-      <c r="G4">
-        <v>0.2</v>
-      </c>
-      <c r="H4">
-        <v>0.2</v>
-      </c>
-      <c r="I4">
-        <v>0.3</v>
-      </c>
-      <c r="J4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <v>0.2</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5">
-        <v>0.2</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
-      </c>
-      <c r="F5">
-        <v>0.3</v>
-      </c>
-      <c r="G5">
-        <v>0.2</v>
-      </c>
-      <c r="H5">
-        <v>0.2</v>
-      </c>
-      <c r="I5">
-        <v>0.3</v>
-      </c>
-      <c r="J5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <v>0.2</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6">
-        <v>0.2</v>
-      </c>
-      <c r="E6">
-        <v>0.2</v>
-      </c>
-      <c r="F6">
-        <v>0.3</v>
-      </c>
-      <c r="G6">
-        <v>0.2</v>
-      </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-      <c r="I6">
-        <v>0.3</v>
-      </c>
-      <c r="J6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <v>0.2</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="D7">
-        <v>0.2</v>
-      </c>
-      <c r="E7">
-        <v>0.2</v>
-      </c>
-      <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7">
-        <v>0.2</v>
-      </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-      <c r="I7">
-        <v>0.3</v>
-      </c>
-      <c r="J7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="B8">
-        <v>0.2</v>
-      </c>
-      <c r="C8">
-        <v>0.3</v>
-      </c>
-      <c r="D8">
-        <v>0.2</v>
-      </c>
-      <c r="E8">
-        <v>0.2</v>
-      </c>
-      <c r="F8">
-        <v>0.3</v>
-      </c>
-      <c r="G8">
-        <v>0.2</v>
-      </c>
-      <c r="H8">
-        <v>0.2</v>
-      </c>
-      <c r="I8">
-        <v>0.3</v>
-      </c>
-      <c r="J8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="B9">
-        <v>0.2</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="D9">
-        <v>0.2</v>
-      </c>
-      <c r="E9">
-        <v>0.2</v>
-      </c>
-      <c r="F9">
-        <v>0.3</v>
-      </c>
-      <c r="G9">
-        <v>0.2</v>
-      </c>
-      <c r="H9">
-        <v>0.2</v>
-      </c>
-      <c r="I9">
-        <v>0.3</v>
-      </c>
-      <c r="J9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="B10">
-        <v>0.2</v>
-      </c>
-      <c r="C10">
-        <v>0.3</v>
-      </c>
-      <c r="D10">
-        <v>0.2</v>
-      </c>
-      <c r="E10">
-        <v>0.2</v>
-      </c>
-      <c r="F10">
-        <v>0.3</v>
-      </c>
-      <c r="G10">
-        <v>0.2</v>
-      </c>
-      <c r="H10">
-        <v>0.2</v>
-      </c>
-      <c r="I10">
-        <v>0.3</v>
-      </c>
-      <c r="J10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="B11">
-        <v>0.2</v>
-      </c>
-      <c r="C11">
-        <v>0.3</v>
-      </c>
-      <c r="D11">
-        <v>0.2</v>
-      </c>
-      <c r="E11">
-        <v>0.2</v>
-      </c>
-      <c r="F11">
-        <v>0.3</v>
-      </c>
-      <c r="G11">
-        <v>0.2</v>
-      </c>
-      <c r="H11">
-        <v>0.2</v>
-      </c>
-      <c r="I11">
-        <v>0.3</v>
-      </c>
-      <c r="J11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="B12">
-        <v>0.2</v>
-      </c>
-      <c r="C12">
-        <v>0.3</v>
-      </c>
-      <c r="D12">
-        <v>0.2</v>
-      </c>
-      <c r="E12">
-        <v>0.2</v>
-      </c>
-      <c r="F12">
-        <v>0.3</v>
-      </c>
-      <c r="G12">
-        <v>0.2</v>
-      </c>
-      <c r="H12">
-        <v>0.2</v>
-      </c>
-      <c r="I12">
-        <v>0.3</v>
-      </c>
-      <c r="J12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-      <c r="B13">
-        <v>0.2</v>
-      </c>
-      <c r="C13">
-        <v>0.3</v>
-      </c>
-      <c r="D13">
-        <v>0.2</v>
-      </c>
-      <c r="E13">
-        <v>0.2</v>
-      </c>
-      <c r="F13">
-        <v>0.3</v>
-      </c>
-      <c r="G13">
-        <v>0.2</v>
-      </c>
-      <c r="H13">
-        <v>0.2</v>
-      </c>
-      <c r="I13">
-        <v>0.3</v>
-      </c>
-      <c r="J13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
-      </c>
-      <c r="B14">
-        <v>0.2</v>
-      </c>
-      <c r="C14">
-        <v>0.3</v>
-      </c>
-      <c r="D14">
-        <v>0.2</v>
-      </c>
-      <c r="E14">
-        <v>0.2</v>
-      </c>
-      <c r="F14">
-        <v>0.3</v>
-      </c>
-      <c r="G14">
-        <v>0.2</v>
-      </c>
-      <c r="H14">
-        <v>0.2</v>
-      </c>
-      <c r="I14">
-        <v>0.3</v>
-      </c>
-      <c r="J14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
-      </c>
-      <c r="B15">
-        <v>0.2</v>
-      </c>
-      <c r="C15">
-        <v>0.3</v>
-      </c>
-      <c r="D15">
-        <v>0.2</v>
-      </c>
-      <c r="E15">
-        <v>0.2</v>
-      </c>
-      <c r="F15">
-        <v>0.3</v>
-      </c>
-      <c r="G15">
-        <v>0.2</v>
-      </c>
-      <c r="H15">
-        <v>0.2</v>
-      </c>
-      <c r="I15">
-        <v>0.3</v>
-      </c>
-      <c r="J15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
-      </c>
-      <c r="B16">
-        <v>0.2</v>
-      </c>
-      <c r="C16">
-        <v>0.3</v>
-      </c>
-      <c r="D16">
-        <v>0.2</v>
-      </c>
-      <c r="E16">
-        <v>0.2</v>
-      </c>
-      <c r="F16">
-        <v>0.3</v>
-      </c>
-      <c r="G16">
-        <v>0.2</v>
-      </c>
-      <c r="H16">
-        <v>0.2</v>
-      </c>
-      <c r="I16">
-        <v>0.3</v>
-      </c>
-      <c r="J16">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
-      </c>
-      <c r="B17">
-        <v>0.2</v>
-      </c>
-      <c r="C17">
-        <v>0.3</v>
-      </c>
-      <c r="D17">
-        <v>0.2</v>
-      </c>
-      <c r="E17">
-        <v>0.2</v>
-      </c>
-      <c r="F17">
-        <v>0.3</v>
-      </c>
-      <c r="G17">
-        <v>0.2</v>
-      </c>
-      <c r="H17">
-        <v>0.2</v>
-      </c>
-      <c r="I17">
-        <v>0.3</v>
-      </c>
-      <c r="J17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
-      </c>
-      <c r="B18">
-        <v>0.2</v>
-      </c>
-      <c r="C18">
-        <v>0.3</v>
-      </c>
-      <c r="D18">
-        <v>0.2</v>
-      </c>
-      <c r="E18">
-        <v>0.2</v>
-      </c>
-      <c r="F18">
-        <v>0.3</v>
-      </c>
-      <c r="G18">
-        <v>0.2</v>
-      </c>
-      <c r="H18">
-        <v>0.2</v>
-      </c>
-      <c r="I18">
-        <v>0.3</v>
-      </c>
-      <c r="J18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
-      </c>
-      <c r="B19">
-        <v>0.2</v>
-      </c>
-      <c r="C19">
-        <v>0.3</v>
-      </c>
-      <c r="D19">
-        <v>0.2</v>
-      </c>
-      <c r="E19">
-        <v>0.2</v>
-      </c>
-      <c r="F19">
-        <v>0.3</v>
-      </c>
-      <c r="G19">
-        <v>0.2</v>
-      </c>
-      <c r="H19">
-        <v>0.2</v>
-      </c>
-      <c r="I19">
-        <v>0.3</v>
-      </c>
-      <c r="J19">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
-      </c>
-      <c r="B20">
-        <v>0.2</v>
-      </c>
-      <c r="C20">
-        <v>0.3</v>
-      </c>
-      <c r="D20">
-        <v>0.2</v>
-      </c>
-      <c r="E20">
-        <v>0.2</v>
-      </c>
-      <c r="F20">
-        <v>0.3</v>
-      </c>
-      <c r="G20">
-        <v>0.2</v>
-      </c>
-      <c r="H20">
-        <v>0.2</v>
-      </c>
-      <c r="I20">
-        <v>0.3</v>
-      </c>
-      <c r="J20">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
-      </c>
-      <c r="B21">
-        <v>0.2</v>
-      </c>
-      <c r="C21">
-        <v>0.3</v>
-      </c>
-      <c r="D21">
-        <v>0.2</v>
-      </c>
-      <c r="E21">
-        <v>0.2</v>
-      </c>
-      <c r="F21">
-        <v>0.3</v>
-      </c>
-      <c r="G21">
-        <v>0.2</v>
-      </c>
-      <c r="H21">
-        <v>0.2</v>
-      </c>
-      <c r="I21">
-        <v>0.3</v>
-      </c>
-      <c r="J21">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
-      </c>
-      <c r="B22">
-        <v>0.2</v>
-      </c>
-      <c r="C22">
-        <v>0.3</v>
-      </c>
-      <c r="D22">
-        <v>0.2</v>
-      </c>
-      <c r="E22">
-        <v>0.2</v>
-      </c>
-      <c r="F22">
-        <v>0.3</v>
-      </c>
-      <c r="G22">
-        <v>0.2</v>
-      </c>
-      <c r="H22">
-        <v>0.2</v>
-      </c>
-      <c r="I22">
-        <v>0.3</v>
-      </c>
-      <c r="J22">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
-      </c>
-      <c r="B23">
-        <v>0.2</v>
-      </c>
-      <c r="C23">
-        <v>0.3</v>
-      </c>
-      <c r="D23">
-        <v>0.2</v>
-      </c>
-      <c r="E23">
-        <v>0.2</v>
-      </c>
-      <c r="F23">
-        <v>0.3</v>
-      </c>
-      <c r="G23">
-        <v>0.2</v>
-      </c>
-      <c r="H23">
-        <v>0.2</v>
-      </c>
-      <c r="I23">
-        <v>0.3</v>
-      </c>
-      <c r="J23">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
-      </c>
-      <c r="B24">
-        <v>0.2</v>
-      </c>
-      <c r="C24">
-        <v>0.3</v>
-      </c>
-      <c r="D24">
-        <v>0.2</v>
-      </c>
-      <c r="E24">
-        <v>0.2</v>
-      </c>
-      <c r="F24">
-        <v>0.3</v>
-      </c>
-      <c r="G24">
-        <v>0.2</v>
-      </c>
-      <c r="H24">
-        <v>0.2</v>
-      </c>
-      <c r="I24">
-        <v>0.3</v>
-      </c>
-      <c r="J24">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
-      </c>
-      <c r="B25">
-        <v>0.2</v>
-      </c>
-      <c r="C25">
-        <v>0.3</v>
-      </c>
-      <c r="D25">
-        <v>0.2</v>
-      </c>
-      <c r="E25">
-        <v>0.2</v>
-      </c>
-      <c r="F25">
-        <v>0.3</v>
-      </c>
-      <c r="G25">
-        <v>0.2</v>
-      </c>
-      <c r="H25">
-        <v>0.2</v>
-      </c>
-      <c r="I25">
-        <v>0.3</v>
-      </c>
-      <c r="J25">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,7 +3477,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
+        <v>45383</v>
       </c>
       <c r="B2">
         <v>48</v>
@@ -3898,7 +3519,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
+        <v>45383.041666666664</v>
       </c>
       <c r="B3">
         <v>60</v>
@@ -3940,7 +3561,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v>45383.083333333336</v>
       </c>
       <c r="B4">
         <v>58</v>
@@ -3982,7 +3603,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
+        <v>45383.125</v>
       </c>
       <c r="B5">
         <v>51</v>
@@ -4024,7 +3645,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
+        <v>45383.166666666664</v>
       </c>
       <c r="B6">
         <v>37</v>
@@ -4066,7 +3687,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
+        <v>45383.208333333336</v>
       </c>
       <c r="B7">
         <v>34</v>
@@ -4108,7 +3729,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
+        <v>45383.25</v>
       </c>
       <c r="B8">
         <v>45</v>
@@ -4150,7 +3771,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
+        <v>45383.291666666664</v>
       </c>
       <c r="B9">
         <v>41</v>
@@ -4192,7 +3813,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
+        <v>45383.333333333336</v>
       </c>
       <c r="B10">
         <v>55</v>
@@ -4234,7 +3855,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
+        <v>45383.375</v>
       </c>
       <c r="B11">
         <v>59</v>
@@ -4276,7 +3897,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
+        <v>45383.416666666664</v>
       </c>
       <c r="B12">
         <v>60</v>
@@ -4318,7 +3939,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
+        <v>45383.458333333336</v>
       </c>
       <c r="B13">
         <v>41</v>
@@ -4360,7 +3981,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
+        <v>45383.5</v>
       </c>
       <c r="B14">
         <v>46</v>
@@ -4402,7 +4023,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
+        <v>45383.541666666664</v>
       </c>
       <c r="B15">
         <v>38</v>
@@ -4444,7 +4065,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
+        <v>45383.583333333336</v>
       </c>
       <c r="B16">
         <v>46</v>
@@ -4486,7 +4107,7 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
+        <v>45383.625</v>
       </c>
       <c r="B17">
         <v>45</v>
@@ -4528,7 +4149,7 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
+        <v>45383.666666666664</v>
       </c>
       <c r="B18">
         <v>41</v>
@@ -4570,7 +4191,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
+        <v>45383.708333333336</v>
       </c>
       <c r="B19">
         <v>46</v>
@@ -4612,7 +4233,7 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
+        <v>45383.75</v>
       </c>
       <c r="B20">
         <v>52</v>
@@ -4654,7 +4275,7 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
+        <v>45383.791666666664</v>
       </c>
       <c r="B21">
         <v>56</v>
@@ -4696,7 +4317,7 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
+        <v>45383.833333333336</v>
       </c>
       <c r="B22">
         <v>33</v>
@@ -4738,7 +4359,7 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
+        <v>45383.875</v>
       </c>
       <c r="B23">
         <v>43</v>
@@ -4780,7 +4401,7 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
+        <v>45383.916666666664</v>
       </c>
       <c r="B24">
         <v>57</v>
@@ -4822,7 +4443,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
+        <v>45383.958333333336</v>
       </c>
       <c r="B25">
         <v>32</v>
@@ -4859,6 +4480,850 @@
       </c>
       <c r="M25">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45383</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>0.3</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45383.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>0.3</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45383.083333333336</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>0.3</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45383.125</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>0.3</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45383.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>0.3</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45383.208333333336</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45383.25</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>0.2</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>0.3</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45383.291666666664</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>0.3</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45383.333333333336</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>0.2</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>0.3</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45383.375</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>0.3</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45383.416666666664</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>0.2</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>0.3</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45383.458333333336</v>
+      </c>
+      <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>0.3</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45383.5</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>0.3</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45383.541666666664</v>
+      </c>
+      <c r="B15">
+        <v>0.2</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>0.3</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45383.583333333336</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16">
+        <v>0.3</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16">
+        <v>0.3</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>0.3</v>
+      </c>
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45383.625</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+      <c r="C17">
+        <v>0.3</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>0.3</v>
+      </c>
+      <c r="J17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45383.666666666664</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18">
+        <v>0.2</v>
+      </c>
+      <c r="E18">
+        <v>0.2</v>
+      </c>
+      <c r="F18">
+        <v>0.3</v>
+      </c>
+      <c r="G18">
+        <v>0.2</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>0.3</v>
+      </c>
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45383.708333333336</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19">
+        <v>0.3</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>0.2</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+      <c r="G19">
+        <v>0.2</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>0.3</v>
+      </c>
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45383.75</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20">
+        <v>0.2</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>0.3</v>
+      </c>
+      <c r="J20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45383.791666666664</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>0.3</v>
+      </c>
+      <c r="D21">
+        <v>0.2</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="F21">
+        <v>0.3</v>
+      </c>
+      <c r="G21">
+        <v>0.2</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>0.3</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45383.833333333336</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22">
+        <v>0.3</v>
+      </c>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="F22">
+        <v>0.3</v>
+      </c>
+      <c r="G22">
+        <v>0.2</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>0.3</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45383.875</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
+        <v>0.3</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <v>0.2</v>
+      </c>
+      <c r="F23">
+        <v>0.3</v>
+      </c>
+      <c r="G23">
+        <v>0.2</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>0.3</v>
+      </c>
+      <c r="J23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45383.916666666664</v>
+      </c>
+      <c r="B24">
+        <v>0.2</v>
+      </c>
+      <c r="C24">
+        <v>0.3</v>
+      </c>
+      <c r="D24">
+        <v>0.2</v>
+      </c>
+      <c r="E24">
+        <v>0.2</v>
+      </c>
+      <c r="F24">
+        <v>0.3</v>
+      </c>
+      <c r="G24">
+        <v>0.2</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>0.3</v>
+      </c>
+      <c r="J24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45383.958333333336</v>
+      </c>
+      <c r="B25">
+        <v>0.2</v>
+      </c>
+      <c r="C25">
+        <v>0.3</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+      <c r="E25">
+        <v>0.2</v>
+      </c>
+      <c r="F25">
+        <v>0.3</v>
+      </c>
+      <c r="G25">
+        <v>0.2</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>0.3</v>
+      </c>
+      <c r="J25">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -4868,765 +5333,168 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEC73BC-AF13-479D-8CEE-456838BE3521}">
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <f>1.1*market_prices!B2</f>
-        <v>52.800000000000004</v>
-      </c>
-      <c r="C2">
-        <f>1.1*market_prices!F2</f>
-        <v>79.2</v>
-      </c>
-      <c r="D2">
-        <f>1.1*market_prices!J2</f>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E2">
-        <f>0.9*market_prices!B2</f>
-        <v>43.2</v>
-      </c>
-      <c r="F2">
-        <f>0.9*market_prices!F2</f>
-        <v>64.8</v>
-      </c>
-      <c r="G2">
-        <f>0.9*market_prices!J2</f>
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <f>1.1*market_prices!B3</f>
-        <v>66</v>
-      </c>
-      <c r="C3">
-        <f>1.1*market_prices!F3</f>
-        <v>99.000000000000014</v>
-      </c>
-      <c r="D3">
-        <f>1.1*market_prices!J3</f>
-        <v>33</v>
-      </c>
-      <c r="E3">
-        <f>0.9*market_prices!B3</f>
-        <v>54</v>
-      </c>
-      <c r="F3">
-        <f>0.9*market_prices!F3</f>
-        <v>81</v>
-      </c>
-      <c r="G3">
-        <f>0.9*market_prices!J3</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <f>1.1*market_prices!B4</f>
-        <v>63.800000000000004</v>
-      </c>
-      <c r="C4">
-        <f>1.1*market_prices!F4</f>
-        <v>95.7</v>
-      </c>
-      <c r="D4">
-        <f>1.1*market_prices!J4</f>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E4">
-        <f>0.9*market_prices!B4</f>
-        <v>52.2</v>
-      </c>
-      <c r="F4">
-        <f>0.9*market_prices!F4</f>
-        <v>78.3</v>
-      </c>
-      <c r="G4">
-        <f>0.9*market_prices!J4</f>
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.083333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <f>1.1*market_prices!B5</f>
-        <v>56.1</v>
-      </c>
-      <c r="C5">
-        <f>1.1*market_prices!F5</f>
-        <v>84.15</v>
-      </c>
-      <c r="D5">
-        <f>1.1*market_prices!J5</f>
-        <v>28.05</v>
-      </c>
-      <c r="E5">
-        <f>0.9*market_prices!B5</f>
-        <v>45.9</v>
-      </c>
-      <c r="F5">
-        <f>0.9*market_prices!F5</f>
-        <v>68.850000000000009</v>
-      </c>
-      <c r="G5">
-        <f>0.9*market_prices!J5</f>
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <f>1.1*market_prices!B6</f>
-        <v>40.700000000000003</v>
-      </c>
-      <c r="C6">
-        <f>1.1*market_prices!F6</f>
-        <v>61.050000000000004</v>
-      </c>
-      <c r="D6">
-        <f>1.1*market_prices!J6</f>
-        <v>20.350000000000001</v>
-      </c>
-      <c r="E6">
-        <f>0.9*market_prices!B6</f>
-        <v>33.300000000000004</v>
-      </c>
-      <c r="F6">
-        <f>0.9*market_prices!F6</f>
-        <v>49.95</v>
-      </c>
-      <c r="G6">
-        <f>0.9*market_prices!J6</f>
-        <v>16.650000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.166666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <f>1.1*market_prices!B7</f>
-        <v>37.400000000000006</v>
-      </c>
-      <c r="C7">
-        <f>1.1*market_prices!F7</f>
-        <v>56.1</v>
-      </c>
-      <c r="D7">
-        <f>1.1*market_prices!J7</f>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E7">
-        <f>0.9*market_prices!B7</f>
-        <v>30.6</v>
-      </c>
-      <c r="F7">
-        <f>0.9*market_prices!F7</f>
-        <v>45.9</v>
-      </c>
-      <c r="G7">
-        <f>0.9*market_prices!J7</f>
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.208333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="B8">
-        <f>1.1*market_prices!B8</f>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="C8">
-        <f>1.1*market_prices!F8</f>
-        <v>74.25</v>
-      </c>
-      <c r="D8">
-        <f>1.1*market_prices!J8</f>
-        <v>24.750000000000004</v>
-      </c>
-      <c r="E8">
-        <f>0.9*market_prices!B8</f>
-        <v>40.5</v>
-      </c>
-      <c r="F8">
-        <f>0.9*market_prices!F8</f>
-        <v>60.75</v>
-      </c>
-      <c r="G8">
-        <f>0.9*market_prices!J8</f>
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="B9">
-        <f>1.1*market_prices!B9</f>
-        <v>45.1</v>
-      </c>
-      <c r="C9">
-        <f>1.1*market_prices!F9</f>
-        <v>67.650000000000006</v>
-      </c>
-      <c r="D9">
-        <f>1.1*market_prices!J9</f>
-        <v>22.55</v>
-      </c>
-      <c r="E9">
-        <f>0.9*market_prices!B9</f>
-        <v>36.9</v>
-      </c>
-      <c r="F9">
-        <f>0.9*market_prices!F9</f>
-        <v>55.35</v>
-      </c>
-      <c r="G9">
-        <f>0.9*market_prices!J9</f>
-        <v>18.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.291666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="B10">
-        <f>1.1*market_prices!B10</f>
-        <v>60.500000000000007</v>
-      </c>
-      <c r="C10">
-        <f>1.1*market_prices!F10</f>
-        <v>90.750000000000014</v>
-      </c>
-      <c r="D10">
-        <f>1.1*market_prices!J10</f>
-        <v>30.250000000000004</v>
-      </c>
-      <c r="E10">
-        <f>0.9*market_prices!B10</f>
-        <v>49.5</v>
-      </c>
-      <c r="F10">
-        <f>0.9*market_prices!F10</f>
-        <v>74.25</v>
-      </c>
-      <c r="G10">
-        <f>0.9*market_prices!J10</f>
-        <v>24.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="B11">
-        <f>1.1*market_prices!B11</f>
-        <v>64.900000000000006</v>
-      </c>
-      <c r="C11">
-        <f>1.1*market_prices!F11</f>
-        <v>97.350000000000009</v>
-      </c>
-      <c r="D11">
-        <f>1.1*market_prices!J11</f>
-        <v>32.450000000000003</v>
-      </c>
-      <c r="E11">
-        <f>0.9*market_prices!B11</f>
-        <v>53.1</v>
-      </c>
-      <c r="F11">
-        <f>0.9*market_prices!F11</f>
-        <v>79.650000000000006</v>
-      </c>
-      <c r="G11">
-        <f>0.9*market_prices!J11</f>
-        <v>26.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="B12">
-        <f>1.1*market_prices!B12</f>
-        <v>66</v>
-      </c>
-      <c r="C12">
-        <f>1.1*market_prices!F12</f>
-        <v>99.000000000000014</v>
-      </c>
-      <c r="D12">
-        <f>1.1*market_prices!J12</f>
-        <v>33</v>
-      </c>
-      <c r="E12">
-        <f>0.9*market_prices!B12</f>
-        <v>54</v>
-      </c>
-      <c r="F12">
-        <f>0.9*market_prices!F12</f>
-        <v>81</v>
-      </c>
-      <c r="G12">
-        <f>0.9*market_prices!J12</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.416666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-      <c r="B13">
-        <f>1.1*market_prices!B13</f>
-        <v>45.1</v>
-      </c>
-      <c r="C13">
-        <f>1.1*market_prices!F13</f>
-        <v>67.650000000000006</v>
-      </c>
-      <c r="D13">
-        <f>1.1*market_prices!J13</f>
-        <v>22.55</v>
-      </c>
-      <c r="E13">
-        <f>0.9*market_prices!B13</f>
-        <v>36.9</v>
-      </c>
-      <c r="F13">
-        <f>0.9*market_prices!F13</f>
-        <v>55.35</v>
-      </c>
-      <c r="G13">
-        <f>0.9*market_prices!J13</f>
-        <v>18.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.458333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
-      </c>
-      <c r="B14">
-        <f>1.1*market_prices!B14</f>
-        <v>50.6</v>
-      </c>
-      <c r="C14">
-        <f>1.1*market_prices!F14</f>
-        <v>75.900000000000006</v>
-      </c>
-      <c r="D14">
-        <f>1.1*market_prices!J14</f>
-        <v>25.3</v>
-      </c>
-      <c r="E14">
-        <f>0.9*market_prices!B14</f>
-        <v>41.4</v>
-      </c>
-      <c r="F14">
-        <f>0.9*market_prices!F14</f>
-        <v>62.1</v>
-      </c>
-      <c r="G14">
-        <f>0.9*market_prices!J14</f>
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
-      </c>
-      <c r="B15">
-        <f>1.1*market_prices!B15</f>
-        <v>41.800000000000004</v>
-      </c>
-      <c r="C15">
-        <f>1.1*market_prices!F15</f>
-        <v>62.7</v>
-      </c>
-      <c r="D15">
-        <f>1.1*market_prices!J15</f>
-        <v>20.900000000000002</v>
-      </c>
-      <c r="E15">
-        <f>0.9*market_prices!B15</f>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="F15">
-        <f>0.9*market_prices!F15</f>
-        <v>51.300000000000004</v>
-      </c>
-      <c r="G15">
-        <f>0.9*market_prices!J15</f>
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.541666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
-      </c>
-      <c r="B16">
-        <f>1.1*market_prices!B16</f>
-        <v>50.6</v>
-      </c>
-      <c r="C16">
-        <f>1.1*market_prices!F16</f>
-        <v>75.900000000000006</v>
-      </c>
-      <c r="D16">
-        <f>1.1*market_prices!J16</f>
-        <v>25.3</v>
-      </c>
-      <c r="E16">
-        <f>0.9*market_prices!B16</f>
-        <v>41.4</v>
-      </c>
-      <c r="F16">
-        <f>0.9*market_prices!F16</f>
-        <v>62.1</v>
-      </c>
-      <c r="G16">
-        <f>0.9*market_prices!J16</f>
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.583333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
-      </c>
-      <c r="B17">
-        <f>1.1*market_prices!B17</f>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="C17">
-        <f>1.1*market_prices!F17</f>
-        <v>74.25</v>
-      </c>
-      <c r="D17">
-        <f>1.1*market_prices!J17</f>
-        <v>24.750000000000004</v>
-      </c>
-      <c r="E17">
-        <f>0.9*market_prices!B17</f>
-        <v>40.5</v>
-      </c>
-      <c r="F17">
-        <f>0.9*market_prices!F17</f>
-        <v>60.75</v>
-      </c>
-      <c r="G17">
-        <f>0.9*market_prices!J17</f>
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
-      </c>
-      <c r="B18">
-        <f>1.1*market_prices!B18</f>
-        <v>45.1</v>
-      </c>
-      <c r="C18">
-        <f>1.1*market_prices!F18</f>
-        <v>67.650000000000006</v>
-      </c>
-      <c r="D18">
-        <f>1.1*market_prices!J18</f>
-        <v>22.55</v>
-      </c>
-      <c r="E18">
-        <f>0.9*market_prices!B18</f>
-        <v>36.9</v>
-      </c>
-      <c r="F18">
-        <f>0.9*market_prices!F18</f>
-        <v>55.35</v>
-      </c>
-      <c r="G18">
-        <f>0.9*market_prices!J18</f>
-        <v>18.45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
-      </c>
-      <c r="B19">
-        <f>1.1*market_prices!B19</f>
-        <v>50.6</v>
-      </c>
-      <c r="C19">
-        <f>1.1*market_prices!F19</f>
-        <v>75.900000000000006</v>
-      </c>
-      <c r="D19">
-        <f>1.1*market_prices!J19</f>
-        <v>25.3</v>
-      </c>
-      <c r="E19">
-        <f>0.9*market_prices!B19</f>
-        <v>41.4</v>
-      </c>
-      <c r="F19">
-        <f>0.9*market_prices!F19</f>
-        <v>62.1</v>
-      </c>
-      <c r="G19">
-        <f>0.9*market_prices!J19</f>
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.708333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
-      </c>
-      <c r="B20">
-        <f>1.1*market_prices!B20</f>
-        <v>57.2</v>
-      </c>
-      <c r="C20">
-        <f>1.1*market_prices!F20</f>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="D20">
-        <f>1.1*market_prices!J20</f>
-        <v>28.6</v>
-      </c>
-      <c r="E20">
-        <f>0.9*market_prices!B20</f>
-        <v>46.800000000000004</v>
-      </c>
-      <c r="F20">
-        <f>0.9*market_prices!F20</f>
-        <v>70.2</v>
-      </c>
-      <c r="G20">
-        <f>0.9*market_prices!J20</f>
-        <v>23.400000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
-      </c>
-      <c r="B21">
-        <f>1.1*market_prices!B21</f>
-        <v>61.600000000000009</v>
-      </c>
-      <c r="C21">
-        <f>1.1*market_prices!F21</f>
-        <v>92.4</v>
-      </c>
-      <c r="D21">
-        <f>1.1*market_prices!J21</f>
-        <v>30.800000000000004</v>
-      </c>
-      <c r="E21">
-        <f>0.9*market_prices!B21</f>
-        <v>50.4</v>
-      </c>
-      <c r="F21">
-        <f>0.9*market_prices!F21</f>
-        <v>75.600000000000009</v>
-      </c>
-      <c r="G21">
-        <f>0.9*market_prices!J21</f>
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.791666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
-      </c>
-      <c r="B22">
-        <f>1.1*market_prices!B22</f>
-        <v>36.300000000000004</v>
-      </c>
-      <c r="C22">
-        <f>1.1*market_prices!F22</f>
-        <v>54.45</v>
-      </c>
-      <c r="D22">
-        <f>1.1*market_prices!J22</f>
-        <v>18.150000000000002</v>
-      </c>
-      <c r="E22">
-        <f>0.9*market_prices!B22</f>
-        <v>29.7</v>
-      </c>
-      <c r="F22">
-        <f>0.9*market_prices!F22</f>
-        <v>44.550000000000004</v>
-      </c>
-      <c r="G22">
-        <f>0.9*market_prices!J22</f>
-        <v>14.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.833333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
-      </c>
-      <c r="B23">
-        <f>1.1*market_prices!B23</f>
-        <v>47.300000000000004</v>
-      </c>
-      <c r="C23">
-        <f>1.1*market_prices!F23</f>
-        <v>70.95</v>
-      </c>
-      <c r="D23">
-        <f>1.1*market_prices!J23</f>
-        <v>23.650000000000002</v>
-      </c>
-      <c r="E23">
-        <f>0.9*market_prices!B23</f>
-        <v>38.700000000000003</v>
-      </c>
-      <c r="F23">
-        <f>0.9*market_prices!F23</f>
-        <v>58.050000000000004</v>
-      </c>
-      <c r="G23">
-        <f>0.9*market_prices!J23</f>
-        <v>19.350000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
-      </c>
-      <c r="B24">
-        <f>1.1*market_prices!B24</f>
-        <v>62.7</v>
-      </c>
-      <c r="C24">
-        <f>1.1*market_prices!F24</f>
-        <v>94.050000000000011</v>
-      </c>
-      <c r="D24">
-        <f>1.1*market_prices!J24</f>
-        <v>31.35</v>
-      </c>
-      <c r="E24">
-        <f>0.9*market_prices!B24</f>
-        <v>51.300000000000004</v>
-      </c>
-      <c r="F24">
-        <f>0.9*market_prices!F24</f>
-        <v>76.95</v>
-      </c>
-      <c r="G24">
-        <f>0.9*market_prices!J24</f>
-        <v>25.650000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45383.916666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
-      </c>
-      <c r="B25">
-        <f>1.1*market_prices!B25</f>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="C25">
-        <f>1.1*market_prices!F25</f>
-        <v>52.800000000000004</v>
-      </c>
-      <c r="D25">
-        <f>1.1*market_prices!J25</f>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E25">
-        <f>0.9*market_prices!B25</f>
-        <v>28.8</v>
-      </c>
-      <c r="F25">
-        <f>0.9*market_prices!F25</f>
-        <v>43.2</v>
-      </c>
-      <c r="G25">
-        <f>0.9*market_prices!J25</f>
-        <v>14.4</v>
+        <v>45383.958333333336</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5655,7 +5523,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5663,7 +5531,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5671,7 +5539,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5679,7 +5547,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5687,7 +5555,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5695,7 +5563,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -5703,7 +5571,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -5711,7 +5579,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5719,7 +5587,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5729,6 +5597,770 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45383</v>
+      </c>
+      <c r="B2">
+        <f>1.1*market_prices!B2</f>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="C2">
+        <f>1.1*market_prices!F2</f>
+        <v>79.2</v>
+      </c>
+      <c r="D2">
+        <f>1.1*market_prices!J2</f>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E2">
+        <f>0.9*market_prices!B2</f>
+        <v>43.2</v>
+      </c>
+      <c r="F2">
+        <f>0.9*market_prices!F2</f>
+        <v>64.8</v>
+      </c>
+      <c r="G2">
+        <f>0.9*market_prices!J2</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45383.041666666664</v>
+      </c>
+      <c r="B3">
+        <f>1.1*market_prices!B3</f>
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <f>1.1*market_prices!F3</f>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="D3">
+        <f>1.1*market_prices!J3</f>
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <f>0.9*market_prices!B3</f>
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <f>0.9*market_prices!F3</f>
+        <v>81</v>
+      </c>
+      <c r="G3">
+        <f>0.9*market_prices!J3</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45383.083333333336</v>
+      </c>
+      <c r="B4">
+        <f>1.1*market_prices!B4</f>
+        <v>63.800000000000004</v>
+      </c>
+      <c r="C4">
+        <f>1.1*market_prices!F4</f>
+        <v>95.7</v>
+      </c>
+      <c r="D4">
+        <f>1.1*market_prices!J4</f>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E4">
+        <f>0.9*market_prices!B4</f>
+        <v>52.2</v>
+      </c>
+      <c r="F4">
+        <f>0.9*market_prices!F4</f>
+        <v>78.3</v>
+      </c>
+      <c r="G4">
+        <f>0.9*market_prices!J4</f>
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45383.125</v>
+      </c>
+      <c r="B5">
+        <f>1.1*market_prices!B5</f>
+        <v>56.1</v>
+      </c>
+      <c r="C5">
+        <f>1.1*market_prices!F5</f>
+        <v>84.15</v>
+      </c>
+      <c r="D5">
+        <f>1.1*market_prices!J5</f>
+        <v>28.05</v>
+      </c>
+      <c r="E5">
+        <f>0.9*market_prices!B5</f>
+        <v>45.9</v>
+      </c>
+      <c r="F5">
+        <f>0.9*market_prices!F5</f>
+        <v>68.850000000000009</v>
+      </c>
+      <c r="G5">
+        <f>0.9*market_prices!J5</f>
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45383.166666666664</v>
+      </c>
+      <c r="B6">
+        <f>1.1*market_prices!B6</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="C6">
+        <f>1.1*market_prices!F6</f>
+        <v>61.050000000000004</v>
+      </c>
+      <c r="D6">
+        <f>1.1*market_prices!J6</f>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="E6">
+        <f>0.9*market_prices!B6</f>
+        <v>33.300000000000004</v>
+      </c>
+      <c r="F6">
+        <f>0.9*market_prices!F6</f>
+        <v>49.95</v>
+      </c>
+      <c r="G6">
+        <f>0.9*market_prices!J6</f>
+        <v>16.650000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45383.208333333336</v>
+      </c>
+      <c r="B7">
+        <f>1.1*market_prices!B7</f>
+        <v>37.400000000000006</v>
+      </c>
+      <c r="C7">
+        <f>1.1*market_prices!F7</f>
+        <v>56.1</v>
+      </c>
+      <c r="D7">
+        <f>1.1*market_prices!J7</f>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E7">
+        <f>0.9*market_prices!B7</f>
+        <v>30.6</v>
+      </c>
+      <c r="F7">
+        <f>0.9*market_prices!F7</f>
+        <v>45.9</v>
+      </c>
+      <c r="G7">
+        <f>0.9*market_prices!J7</f>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45383.25</v>
+      </c>
+      <c r="B8">
+        <f>1.1*market_prices!B8</f>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="C8">
+        <f>1.1*market_prices!F8</f>
+        <v>74.25</v>
+      </c>
+      <c r="D8">
+        <f>1.1*market_prices!J8</f>
+        <v>24.750000000000004</v>
+      </c>
+      <c r="E8">
+        <f>0.9*market_prices!B8</f>
+        <v>40.5</v>
+      </c>
+      <c r="F8">
+        <f>0.9*market_prices!F8</f>
+        <v>60.75</v>
+      </c>
+      <c r="G8">
+        <f>0.9*market_prices!J8</f>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45383.291666666664</v>
+      </c>
+      <c r="B9">
+        <f>1.1*market_prices!B9</f>
+        <v>45.1</v>
+      </c>
+      <c r="C9">
+        <f>1.1*market_prices!F9</f>
+        <v>67.650000000000006</v>
+      </c>
+      <c r="D9">
+        <f>1.1*market_prices!J9</f>
+        <v>22.55</v>
+      </c>
+      <c r="E9">
+        <f>0.9*market_prices!B9</f>
+        <v>36.9</v>
+      </c>
+      <c r="F9">
+        <f>0.9*market_prices!F9</f>
+        <v>55.35</v>
+      </c>
+      <c r="G9">
+        <f>0.9*market_prices!J9</f>
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45383.333333333336</v>
+      </c>
+      <c r="B10">
+        <f>1.1*market_prices!B10</f>
+        <v>60.500000000000007</v>
+      </c>
+      <c r="C10">
+        <f>1.1*market_prices!F10</f>
+        <v>90.750000000000014</v>
+      </c>
+      <c r="D10">
+        <f>1.1*market_prices!J10</f>
+        <v>30.250000000000004</v>
+      </c>
+      <c r="E10">
+        <f>0.9*market_prices!B10</f>
+        <v>49.5</v>
+      </c>
+      <c r="F10">
+        <f>0.9*market_prices!F10</f>
+        <v>74.25</v>
+      </c>
+      <c r="G10">
+        <f>0.9*market_prices!J10</f>
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45383.375</v>
+      </c>
+      <c r="B11">
+        <f>1.1*market_prices!B11</f>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="C11">
+        <f>1.1*market_prices!F11</f>
+        <v>97.350000000000009</v>
+      </c>
+      <c r="D11">
+        <f>1.1*market_prices!J11</f>
+        <v>32.450000000000003</v>
+      </c>
+      <c r="E11">
+        <f>0.9*market_prices!B11</f>
+        <v>53.1</v>
+      </c>
+      <c r="F11">
+        <f>0.9*market_prices!F11</f>
+        <v>79.650000000000006</v>
+      </c>
+      <c r="G11">
+        <f>0.9*market_prices!J11</f>
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45383.416666666664</v>
+      </c>
+      <c r="B12">
+        <f>1.1*market_prices!B12</f>
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <f>1.1*market_prices!F12</f>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="D12">
+        <f>1.1*market_prices!J12</f>
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <f>0.9*market_prices!B12</f>
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <f>0.9*market_prices!F12</f>
+        <v>81</v>
+      </c>
+      <c r="G12">
+        <f>0.9*market_prices!J12</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45383.458333333336</v>
+      </c>
+      <c r="B13">
+        <f>1.1*market_prices!B13</f>
+        <v>45.1</v>
+      </c>
+      <c r="C13">
+        <f>1.1*market_prices!F13</f>
+        <v>67.650000000000006</v>
+      </c>
+      <c r="D13">
+        <f>1.1*market_prices!J13</f>
+        <v>22.55</v>
+      </c>
+      <c r="E13">
+        <f>0.9*market_prices!B13</f>
+        <v>36.9</v>
+      </c>
+      <c r="F13">
+        <f>0.9*market_prices!F13</f>
+        <v>55.35</v>
+      </c>
+      <c r="G13">
+        <f>0.9*market_prices!J13</f>
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45383.5</v>
+      </c>
+      <c r="B14">
+        <f>1.1*market_prices!B14</f>
+        <v>50.6</v>
+      </c>
+      <c r="C14">
+        <f>1.1*market_prices!F14</f>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D14">
+        <f>1.1*market_prices!J14</f>
+        <v>25.3</v>
+      </c>
+      <c r="E14">
+        <f>0.9*market_prices!B14</f>
+        <v>41.4</v>
+      </c>
+      <c r="F14">
+        <f>0.9*market_prices!F14</f>
+        <v>62.1</v>
+      </c>
+      <c r="G14">
+        <f>0.9*market_prices!J14</f>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45383.541666666664</v>
+      </c>
+      <c r="B15">
+        <f>1.1*market_prices!B15</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="C15">
+        <f>1.1*market_prices!F15</f>
+        <v>62.7</v>
+      </c>
+      <c r="D15">
+        <f>1.1*market_prices!J15</f>
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E15">
+        <f>0.9*market_prices!B15</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F15">
+        <f>0.9*market_prices!F15</f>
+        <v>51.300000000000004</v>
+      </c>
+      <c r="G15">
+        <f>0.9*market_prices!J15</f>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45383.583333333336</v>
+      </c>
+      <c r="B16">
+        <f>1.1*market_prices!B16</f>
+        <v>50.6</v>
+      </c>
+      <c r="C16">
+        <f>1.1*market_prices!F16</f>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D16">
+        <f>1.1*market_prices!J16</f>
+        <v>25.3</v>
+      </c>
+      <c r="E16">
+        <f>0.9*market_prices!B16</f>
+        <v>41.4</v>
+      </c>
+      <c r="F16">
+        <f>0.9*market_prices!F16</f>
+        <v>62.1</v>
+      </c>
+      <c r="G16">
+        <f>0.9*market_prices!J16</f>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45383.625</v>
+      </c>
+      <c r="B17">
+        <f>1.1*market_prices!B17</f>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="C17">
+        <f>1.1*market_prices!F17</f>
+        <v>74.25</v>
+      </c>
+      <c r="D17">
+        <f>1.1*market_prices!J17</f>
+        <v>24.750000000000004</v>
+      </c>
+      <c r="E17">
+        <f>0.9*market_prices!B17</f>
+        <v>40.5</v>
+      </c>
+      <c r="F17">
+        <f>0.9*market_prices!F17</f>
+        <v>60.75</v>
+      </c>
+      <c r="G17">
+        <f>0.9*market_prices!J17</f>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45383.666666666664</v>
+      </c>
+      <c r="B18">
+        <f>1.1*market_prices!B18</f>
+        <v>45.1</v>
+      </c>
+      <c r="C18">
+        <f>1.1*market_prices!F18</f>
+        <v>67.650000000000006</v>
+      </c>
+      <c r="D18">
+        <f>1.1*market_prices!J18</f>
+        <v>22.55</v>
+      </c>
+      <c r="E18">
+        <f>0.9*market_prices!B18</f>
+        <v>36.9</v>
+      </c>
+      <c r="F18">
+        <f>0.9*market_prices!F18</f>
+        <v>55.35</v>
+      </c>
+      <c r="G18">
+        <f>0.9*market_prices!J18</f>
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45383.708333333336</v>
+      </c>
+      <c r="B19">
+        <f>1.1*market_prices!B19</f>
+        <v>50.6</v>
+      </c>
+      <c r="C19">
+        <f>1.1*market_prices!F19</f>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D19">
+        <f>1.1*market_prices!J19</f>
+        <v>25.3</v>
+      </c>
+      <c r="E19">
+        <f>0.9*market_prices!B19</f>
+        <v>41.4</v>
+      </c>
+      <c r="F19">
+        <f>0.9*market_prices!F19</f>
+        <v>62.1</v>
+      </c>
+      <c r="G19">
+        <f>0.9*market_prices!J19</f>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45383.75</v>
+      </c>
+      <c r="B20">
+        <f>1.1*market_prices!B20</f>
+        <v>57.2</v>
+      </c>
+      <c r="C20">
+        <f>1.1*market_prices!F20</f>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="D20">
+        <f>1.1*market_prices!J20</f>
+        <v>28.6</v>
+      </c>
+      <c r="E20">
+        <f>0.9*market_prices!B20</f>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="F20">
+        <f>0.9*market_prices!F20</f>
+        <v>70.2</v>
+      </c>
+      <c r="G20">
+        <f>0.9*market_prices!J20</f>
+        <v>23.400000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45383.791666666664</v>
+      </c>
+      <c r="B21">
+        <f>1.1*market_prices!B21</f>
+        <v>61.600000000000009</v>
+      </c>
+      <c r="C21">
+        <f>1.1*market_prices!F21</f>
+        <v>92.4</v>
+      </c>
+      <c r="D21">
+        <f>1.1*market_prices!J21</f>
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E21">
+        <f>0.9*market_prices!B21</f>
+        <v>50.4</v>
+      </c>
+      <c r="F21">
+        <f>0.9*market_prices!F21</f>
+        <v>75.600000000000009</v>
+      </c>
+      <c r="G21">
+        <f>0.9*market_prices!J21</f>
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45383.833333333336</v>
+      </c>
+      <c r="B22">
+        <f>1.1*market_prices!B22</f>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="C22">
+        <f>1.1*market_prices!F22</f>
+        <v>54.45</v>
+      </c>
+      <c r="D22">
+        <f>1.1*market_prices!J22</f>
+        <v>18.150000000000002</v>
+      </c>
+      <c r="E22">
+        <f>0.9*market_prices!B22</f>
+        <v>29.7</v>
+      </c>
+      <c r="F22">
+        <f>0.9*market_prices!F22</f>
+        <v>44.550000000000004</v>
+      </c>
+      <c r="G22">
+        <f>0.9*market_prices!J22</f>
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45383.875</v>
+      </c>
+      <c r="B23">
+        <f>1.1*market_prices!B23</f>
+        <v>47.300000000000004</v>
+      </c>
+      <c r="C23">
+        <f>1.1*market_prices!F23</f>
+        <v>70.95</v>
+      </c>
+      <c r="D23">
+        <f>1.1*market_prices!J23</f>
+        <v>23.650000000000002</v>
+      </c>
+      <c r="E23">
+        <f>0.9*market_prices!B23</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F23">
+        <f>0.9*market_prices!F23</f>
+        <v>58.050000000000004</v>
+      </c>
+      <c r="G23">
+        <f>0.9*market_prices!J23</f>
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45383.916666666664</v>
+      </c>
+      <c r="B24">
+        <f>1.1*market_prices!B24</f>
+        <v>62.7</v>
+      </c>
+      <c r="C24">
+        <f>1.1*market_prices!F24</f>
+        <v>94.050000000000011</v>
+      </c>
+      <c r="D24">
+        <f>1.1*market_prices!J24</f>
+        <v>31.35</v>
+      </c>
+      <c r="E24">
+        <f>0.9*market_prices!B24</f>
+        <v>51.300000000000004</v>
+      </c>
+      <c r="F24">
+        <f>0.9*market_prices!F24</f>
+        <v>76.95</v>
+      </c>
+      <c r="G24">
+        <f>0.9*market_prices!J24</f>
+        <v>25.650000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45383.958333333336</v>
+      </c>
+      <c r="B25">
+        <f>1.1*market_prices!B25</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C25">
+        <f>1.1*market_prices!F25</f>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="D25">
+        <f>1.1*market_prices!J25</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E25">
+        <f>0.9*market_prices!B25</f>
+        <v>28.8</v>
+      </c>
+      <c r="F25">
+        <f>0.9*market_prices!F25</f>
+        <v>43.2</v>
+      </c>
+      <c r="G25">
+        <f>0.9*market_prices!J25</f>
+        <v>14.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA769D9D-D715-44F6-9548-799003AAC474}">
   <dimension ref="A1:BA25"/>
   <sheetViews>
@@ -5819,7 +6451,7 @@
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
+        <v>45383</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5852,7 +6484,7 @@
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
+        <v>45383.041666666664</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5885,7 +6517,7 @@
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v>45383.083333333336</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5918,7 +6550,7 @@
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
+        <v>45383.125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5951,7 +6583,7 @@
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
+        <v>45383.166666666664</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5984,7 +6616,7 @@
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
+        <v>45383.208333333336</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6017,7 +6649,7 @@
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
+        <v>45383.25</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6050,7 +6682,7 @@
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
+        <v>45383.291666666664</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6083,7 +6715,7 @@
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
+        <v>45383.333333333336</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6116,7 +6748,7 @@
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
+        <v>45383.375</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6149,7 +6781,7 @@
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
+        <v>45383.416666666664</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6182,7 +6814,7 @@
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
+        <v>45383.458333333336</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6215,7 +6847,7 @@
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
+        <v>45383.5</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6248,7 +6880,7 @@
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
+        <v>45383.541666666664</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6281,7 +6913,7 @@
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
+        <v>45383.583333333336</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6314,7 +6946,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
+        <v>45383.625</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6347,7 +6979,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
+        <v>45383.666666666664</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6380,7 +7012,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
+        <v>45383.708333333336</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6413,7 +7045,7 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
+        <v>45383.75</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6446,7 +7078,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
+        <v>45383.791666666664</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6479,7 +7111,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
+        <v>45383.833333333336</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6512,7 +7144,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
+        <v>45383.875</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6545,7 +7177,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
+        <v>45383.916666666664</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6578,7 +7210,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
+        <v>45383.958333333336</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6613,7 +7245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6655,7 +7287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6702,7 +7334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -6723,152 +7355,152 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
+        <v>45383</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
+        <v>45383.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v>45383.083333333336</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
+        <v>45383.125</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
+        <v>45383.166666666664</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
+        <v>45383.208333333336</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
+        <v>45383.25</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
+        <v>45383.291666666664</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
+        <v>45383.333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
+        <v>45383.375</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
+        <v>45383.416666666664</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
+        <v>45383.458333333336</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
+        <v>45383.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
+        <v>45383.541666666664</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
+        <v>45383.583333333336</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
+        <v>45383.625</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
+        <v>45383.666666666664</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
+        <v>45383.708333333336</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
+        <v>45383.75</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
+        <v>45383.791666666664</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
+        <v>45383.833333333336</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
+        <v>45383.875</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
+        <v>45383.916666666664</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
+        <v>45383.958333333336</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +7508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -6894,19 +7526,19 @@
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
+        <v>45383</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -6921,7 +7553,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
+        <v>45383.041666666664</v>
       </c>
       <c r="B3">
         <v>3.5</v>
@@ -6936,7 +7568,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v>45383.083333333336</v>
       </c>
       <c r="B4">
         <v>3.5</v>
@@ -6951,7 +7583,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
+        <v>45383.125</v>
       </c>
       <c r="B5">
         <v>3.4</v>
@@ -6966,7 +7598,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
+        <v>45383.166666666664</v>
       </c>
       <c r="B6">
         <v>3.3</v>
@@ -6981,7 +7613,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
+        <v>45383.208333333336</v>
       </c>
       <c r="B7">
         <v>3.2</v>
@@ -6996,7 +7628,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
+        <v>45383.25</v>
       </c>
       <c r="B8">
         <v>3.1</v>
@@ -7011,7 +7643,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
+        <v>45383.291666666664</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -7026,7 +7658,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
+        <v>45383.333333333336</v>
       </c>
       <c r="B10">
         <v>2.5</v>
@@ -7041,7 +7673,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
+        <v>45383.375</v>
       </c>
       <c r="B11">
         <v>2.5</v>
@@ -7056,7 +7688,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
+        <v>45383.416666666664</v>
       </c>
       <c r="B12">
         <v>2.5</v>
@@ -7071,7 +7703,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
+        <v>45383.458333333336</v>
       </c>
       <c r="B13">
         <v>2.5</v>
@@ -7086,7 +7718,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
+        <v>45383.5</v>
       </c>
       <c r="B14">
         <v>2.5</v>
@@ -7101,7 +7733,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
+        <v>45383.541666666664</v>
       </c>
       <c r="B15">
         <v>2.5</v>
@@ -7116,7 +7748,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
+        <v>45383.583333333336</v>
       </c>
       <c r="B16">
         <v>2.5</v>
@@ -7131,7 +7763,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
+        <v>45383.625</v>
       </c>
       <c r="B17">
         <v>2.5</v>
@@ -7146,7 +7778,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
+        <v>45383.666666666664</v>
       </c>
       <c r="B18">
         <v>2.5</v>
@@ -7161,7 +7793,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
+        <v>45383.708333333336</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -7176,7 +7808,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
+        <v>45383.75</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -7191,7 +7823,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
+        <v>45383.791666666664</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -7206,7 +7838,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
+        <v>45383.833333333336</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -7221,7 +7853,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
+        <v>45383.875</v>
       </c>
       <c r="B23">
         <v>3.5</v>
@@ -7236,7 +7868,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
+        <v>45383.916666666664</v>
       </c>
       <c r="B24">
         <v>3.5</v>
@@ -7251,7 +7883,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
+        <v>45383.958333333336</v>
       </c>
       <c r="B25">
         <v>3.5</v>
@@ -7269,7 +7901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -7323,7 +7955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -7374,7 +8006,7 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
+        <v>45383</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7407,7 +8039,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
+        <v>45383.041666666664</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7440,7 +8072,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v>45383.083333333336</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7473,7 +8105,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
+        <v>45383.125</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7506,7 +8138,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
+        <v>45383.166666666664</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7539,7 +8171,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
+        <v>45383.208333333336</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7572,7 +8204,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
+        <v>45383.25</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7605,7 +8237,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
+        <v>45383.291666666664</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7638,7 +8270,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
+        <v>45383.333333333336</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -7671,7 +8303,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
+        <v>45383.375</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7704,7 +8336,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
+        <v>45383.416666666664</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -7737,7 +8369,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
+        <v>45383.458333333336</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7770,7 +8402,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
+        <v>45383.5</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7803,7 +8435,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
+        <v>45383.541666666664</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -7836,7 +8468,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
+        <v>45383.583333333336</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7869,7 +8501,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
+        <v>45383.625</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7902,7 +8534,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
+        <v>45383.666666666664</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7935,7 +8567,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
+        <v>45383.708333333336</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7968,7 +8600,7 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
+        <v>45383.75</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -8001,7 +8633,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
+        <v>45383.791666666664</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -8034,7 +8666,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
+        <v>45383.833333333336</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -8067,7 +8699,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
+        <v>45383.875</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -8100,7 +8732,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
+        <v>45383.916666666664</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -8133,7 +8765,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
+        <v>45383.958333333336</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -8168,7 +8800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -8198,7 +8830,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
+        <v>45383</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -8213,7 +8845,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
+        <v>45383.041666666664</v>
       </c>
       <c r="B3">
         <v>4.2857142857142856</v>
@@ -8228,7 +8860,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v>45383.083333333336</v>
       </c>
       <c r="B4">
         <v>4.2857142857142856</v>
@@ -8243,7 +8875,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
+        <v>45383.125</v>
       </c>
       <c r="B5">
         <v>4.4117647058823533</v>
@@ -8258,7 +8890,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
+        <v>45383.166666666664</v>
       </c>
       <c r="B6">
         <v>4.5454545454545459</v>
@@ -8273,7 +8905,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
+        <v>45383.208333333336</v>
       </c>
       <c r="B7">
         <v>4.6875</v>
@@ -8288,7 +8920,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
+        <v>45383.25</v>
       </c>
       <c r="B8">
         <v>4.838709677419355</v>
@@ -8303,7 +8935,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
+        <v>45383.291666666664</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -8318,7 +8950,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
+        <v>45383.333333333336</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -8333,7 +8965,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
+        <v>45383.375</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -8348,7 +8980,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
+        <v>45383.416666666664</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -8363,7 +8995,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
+        <v>45383.458333333336</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -8378,7 +9010,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
+        <v>45383.5</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -8393,7 +9025,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
+        <v>45383.541666666664</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -8408,7 +9040,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
+        <v>45383.583333333336</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -8423,7 +9055,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
+        <v>45383.625</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -8438,7 +9070,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
+        <v>45383.666666666664</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -8453,7 +9085,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
+        <v>45383.708333333336</v>
       </c>
       <c r="B19">
         <v>3.75</v>
@@ -8468,7 +9100,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
+        <v>45383.75</v>
       </c>
       <c r="B20">
         <v>3.75</v>
@@ -8483,7 +9115,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
+        <v>45383.791666666664</v>
       </c>
       <c r="B21">
         <v>3.75</v>
@@ -8498,7 +9130,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
+        <v>45383.833333333336</v>
       </c>
       <c r="B22">
         <v>3.75</v>
@@ -8513,7 +9145,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
+        <v>45383.875</v>
       </c>
       <c r="B23">
         <v>4.2857142857142856</v>
@@ -8528,7 +9160,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
+        <v>45383.916666666664</v>
       </c>
       <c r="B24">
         <v>4.2857142857142856</v>
@@ -8543,7 +9175,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
+        <v>45383.958333333336</v>
       </c>
       <c r="B25">
         <v>4.2857142857142856</v>
@@ -8565,7 +9197,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8604,7 +9236,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -8619,13 +9251,13 @@
         <v>106</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>110</v>
@@ -8633,13 +9265,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
@@ -8648,22 +9280,22 @@
         <v>0</v>
       </c>
       <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4000</v>
+      </c>
+      <c r="H2">
+        <v>2200</v>
       </c>
       <c r="I2" s="6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
@@ -8683,37 +9315,37 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4200</v>
+      </c>
+      <c r="H3">
+        <v>700</v>
       </c>
       <c r="I3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -8733,7 +9365,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -8748,25 +9380,25 @@
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>6000</v>
+      </c>
+      <c r="H4">
+        <v>1600</v>
       </c>
       <c r="I4" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>1E-3</v>
+        <v>5</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
@@ -8783,7 +9415,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -8800,11 +9432,11 @@
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
+      <c r="G5">
+        <v>10000</v>
+      </c>
+      <c r="H5">
+        <v>7100</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
@@ -8813,7 +9445,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -8833,13 +9465,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -8850,20 +9482,20 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
+      <c r="G6">
+        <v>20000</v>
+      </c>
+      <c r="H6">
+        <v>15000</v>
       </c>
       <c r="I6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -8905,10 +9537,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8918,15 +9550,15 @@
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -8973,15 +9605,15 @@
         <v>96</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -8990,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -8999,324 +9631,908 @@
         <v>1</v>
       </c>
       <c r="G2" s="6">
-        <v>0.9</v>
+        <v>1.0735749999999999</v>
       </c>
       <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.1104728625</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.0982962000000001</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.0860950125</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.9396960000000002E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N15" t="s">
+        <v>178</v>
+      </c>
+      <c r="O15" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>181</v>
+      </c>
+      <c r="R15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16">
+        <v>0.05</v>
+      </c>
+      <c r="F16">
+        <f>E16*1000*1000</f>
+        <v>50000</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <f>F16*G16*9.81/1000/1000</f>
+        <v>14.715</v>
+      </c>
+      <c r="I16">
+        <f>H16/3600</f>
+        <v>4.0875E-3</v>
+      </c>
+      <c r="J16">
+        <f>I16*0.9</f>
+        <v>3.6787500000000002E-3</v>
+      </c>
+      <c r="K16">
+        <f>1*H16</f>
+        <v>14.715</v>
+      </c>
+      <c r="L16">
+        <f>K16</f>
+        <v>14.715</v>
+      </c>
+      <c r="M16">
+        <f>E16*1000</f>
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>4000</v>
+      </c>
+      <c r="O16">
+        <v>2200</v>
+      </c>
+      <c r="P16">
+        <f ca="1">RANDBETWEEN(36,72)*10</f>
+        <v>650</v>
+      </c>
+      <c r="Q16">
+        <f ca="1">RANDBETWEEN(2,10)*10</f>
+        <v>60</v>
+      </c>
+      <c r="R16">
+        <f>(N16-O16)/M16</f>
+        <v>36</v>
+      </c>
+      <c r="S16">
+        <f>(N16-O16)/E16</f>
+        <v>36000</v>
+      </c>
+      <c r="T16">
+        <f>ROUND(N16/$M16,-2)</f>
+        <v>100</v>
+      </c>
+      <c r="U16">
+        <f>ROUND(O16/$M16,-2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17">
+        <v>0.08</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F20" si="0">E17*1000*1000</f>
+        <v>80000</v>
+      </c>
+      <c r="G17">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H20" si="1">F17*G17*9.81/1000/1000</f>
+        <v>35.316000000000003</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I20" si="2">H17/3600</f>
+        <v>9.810000000000001E-3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J20" si="3">I17*0.9</f>
+        <v>8.8290000000000018E-3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K20" si="4">1*H17</f>
+        <v>35.316000000000003</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L20" si="5">K17</f>
+        <v>35.316000000000003</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M20" si="6">E17*1000</f>
+        <v>80</v>
+      </c>
+      <c r="N17">
+        <v>4200</v>
+      </c>
+      <c r="O17">
+        <v>700</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:P20" ca="1" si="7">RANDBETWEEN(36,72)*10</f>
+        <v>510</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17:Q20" ca="1" si="8">RANDBETWEEN(2,10)*10</f>
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17:R20" si="9">(N17-O17)/M17</f>
+        <v>43.75</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:S20" si="10">(N17-O17)/E17</f>
+        <v>43750</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ref="T17:T20" si="11">ROUND(N17/$M17,-2)</f>
+        <v>100</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ref="U17:U20" si="12">ROUND(O17/$M17,-2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18">
+        <v>0.18</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>70.632000000000005</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>1.9620000000000002E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1.7658000000000004E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>70.632000000000005</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>70.632000000000005</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="N18">
+        <v>6000</v>
+      </c>
+      <c r="O18">
+        <v>1600</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="7"/>
+        <v>590</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="9"/>
+        <v>24.444444444444443</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="10"/>
+        <v>24444.444444444445</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="G19">
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>85.837500000000006</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>2.384375E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>2.1459374999999999E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>85.837500000000006</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>85.837500000000006</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="N19">
+        <v>10000</v>
+      </c>
+      <c r="O19">
+        <v>7100</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="7"/>
+        <v>440</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="9"/>
+        <v>11.6</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="10"/>
+        <v>11600</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20">
         <v>0.3</v>
       </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>4</v>
-      </c>
-      <c r="L2" s="6">
-        <v>3</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>1</v>
-      </c>
-      <c r="P2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>47.088000000000001</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>1.308E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1.1771999999999999E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>47.088000000000001</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>47.088000000000001</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="N20">
+        <v>20000</v>
+      </c>
+      <c r="O20">
+        <v>15000</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="9"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="10"/>
+        <v>16666.666666666668</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9494,7 +10710,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9536,10 +10752,10 @@
         <v>21</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -9921,145 +11137,145 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
+        <v>45383.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
+        <v>45383.083333333336</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
+        <v>45383.125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
+        <v>45383.166666666664</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
+        <v>45383.208333333336</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
+        <v>45383.25</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
+        <v>45383.291666666664</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
+        <v>45383.333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
+        <v>45383.375</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
+        <v>45383.416666666664</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
+        <v>45383.458333333336</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
+        <v>45383.5</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
+        <v>45383.541666666664</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
+        <v>45383.583333333336</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
+        <v>45383.625</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
+        <v>45383.666666666664</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
+        <v>45383.708333333336</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
+        <v>45383.75</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
+        <v>45383.791666666664</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
+        <v>45383.833333333336</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
+        <v>45383.875</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
+        <v>45383.916666666664</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
+        <v>45383.958333333336</v>
       </c>
     </row>
   </sheetData>
@@ -10090,13 +11306,13 @@
         <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/simple_hydropower_river_system.xlsx
+++ b/input_data/simple_hydropower_river_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CCECFC-65C3-4AA0-9CA5-04E286D9640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F3ED48-6707-4F6C-BD3F-D3CF0CCD4A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="170">
   <si>
     <t>node</t>
   </si>
@@ -152,9 +152,6 @@
     <t>sink</t>
   </si>
   <si>
-    <t>VOM_cost</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>reserve</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
@@ -464,9 +458,6 @@
     <t>is_temp</t>
   </si>
   <si>
-    <t>T_E_conversion</t>
-  </si>
-  <si>
     <t>delay_t</t>
   </si>
   <si>
@@ -569,46 +560,16 @@
     <t>hydro5_spill</t>
   </si>
   <si>
-    <t>Water weight</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Head height</t>
-  </si>
-  <si>
-    <t>Energy, MJ</t>
-  </si>
-  <si>
-    <t>Energy, MWh</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>P for 1000 m3/s</t>
-  </si>
-  <si>
-    <t>E per hour</t>
-  </si>
-  <si>
-    <t>Water consumption per h</t>
-  </si>
-  <si>
-    <t>Res_max</t>
-  </si>
-  <si>
-    <t>Res_min</t>
-  </si>
-  <si>
-    <t>Max flow</t>
-  </si>
-  <si>
-    <t>min flow</t>
-  </si>
-  <si>
-    <t>hours operation</t>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>t_e_conversion</t>
+  </si>
+  <si>
+    <t>market_type</t>
+  </si>
+  <si>
+    <t>group_type</t>
   </si>
 </sst>
 </file>
@@ -999,7 +960,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1441,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1452,7 +1413,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1612,22 +1573,22 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1635,7 +1596,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1663,19 +1624,19 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F1"/>
     </row>
@@ -2185,25 +2146,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2900,7 +2861,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2993,10 +2954,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3225,7 +3186,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,37 +3201,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3278,19 +3239,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3310,22 +3271,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3345,22 +3306,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3380,22 +3341,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3435,43 +3396,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4504,34 +4465,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5347,7 +5308,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -5515,15 +5476,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5531,7 +5492,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5539,7 +5500,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5547,7 +5508,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5555,7 +5516,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5563,7 +5524,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -5571,7 +5532,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -5579,7 +5540,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5587,7 +5548,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5613,25 +5574,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6375,34 +6336,34 @@
   <sheetData>
     <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="K1"/>
       <c r="L1"/>
@@ -7260,15 +7221,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -7276,7 +7237,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -7299,15 +7260,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -7315,7 +7276,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -7323,7 +7284,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -7349,7 +7310,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7523,16 +7484,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7918,24 +7879,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -7973,34 +7934,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>93</v>
-      </c>
-      <c r="I1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8815,16 +8776,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9197,7 +9158,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9224,7 +9185,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -9236,7 +9197,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -9245,27 +9206,27 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -9315,7 +9276,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -9365,7 +9326,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -9415,7 +9376,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -9465,7 +9426,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -9537,10 +9498,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9558,7 +9519,7 @@
     <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -9566,13 +9527,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -9587,33 +9548,33 @@
         <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -9664,9 +9625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -9717,9 +9678,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -9770,9 +9731,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -9823,9 +9784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -9876,222 +9837,222 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>168</v>
-      </c>
       <c r="B11" s="6">
         <v>0</v>
       </c>
@@ -10139,395 +10100,6 @@
       </c>
       <c r="Q11" s="6">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" t="s">
-        <v>172</v>
-      </c>
-      <c r="I15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K15" t="s">
-        <v>175</v>
-      </c>
-      <c r="L15" t="s">
-        <v>176</v>
-      </c>
-      <c r="M15" t="s">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O15" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>181</v>
-      </c>
-      <c r="R15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16">
-        <v>0.05</v>
-      </c>
-      <c r="F16">
-        <f>E16*1000*1000</f>
-        <v>50000</v>
-      </c>
-      <c r="G16">
-        <v>30</v>
-      </c>
-      <c r="H16">
-        <f>F16*G16*9.81/1000/1000</f>
-        <v>14.715</v>
-      </c>
-      <c r="I16">
-        <f>H16/3600</f>
-        <v>4.0875E-3</v>
-      </c>
-      <c r="J16">
-        <f>I16*0.9</f>
-        <v>3.6787500000000002E-3</v>
-      </c>
-      <c r="K16">
-        <f>1*H16</f>
-        <v>14.715</v>
-      </c>
-      <c r="L16">
-        <f>K16</f>
-        <v>14.715</v>
-      </c>
-      <c r="M16">
-        <f>E16*1000</f>
-        <v>50</v>
-      </c>
-      <c r="N16">
-        <v>4000</v>
-      </c>
-      <c r="O16">
-        <v>2200</v>
-      </c>
-      <c r="P16">
-        <f ca="1">RANDBETWEEN(36,72)*10</f>
-        <v>650</v>
-      </c>
-      <c r="Q16">
-        <f ca="1">RANDBETWEEN(2,10)*10</f>
-        <v>60</v>
-      </c>
-      <c r="R16">
-        <f>(N16-O16)/M16</f>
-        <v>36</v>
-      </c>
-      <c r="S16">
-        <f>(N16-O16)/E16</f>
-        <v>36000</v>
-      </c>
-      <c r="T16">
-        <f>ROUND(N16/$M16,-2)</f>
-        <v>100</v>
-      </c>
-      <c r="U16">
-        <f>ROUND(O16/$M16,-2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17">
-        <v>0.08</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F20" si="0">E17*1000*1000</f>
-        <v>80000</v>
-      </c>
-      <c r="G17">
-        <v>45</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H17:H20" si="1">F17*G17*9.81/1000/1000</f>
-        <v>35.316000000000003</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ref="I17:I20" si="2">H17/3600</f>
-        <v>9.810000000000001E-3</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ref="J17:J20" si="3">I17*0.9</f>
-        <v>8.8290000000000018E-3</v>
-      </c>
-      <c r="K17">
-        <f t="shared" ref="K17:K20" si="4">1*H17</f>
-        <v>35.316000000000003</v>
-      </c>
-      <c r="L17">
-        <f t="shared" ref="L17:L20" si="5">K17</f>
-        <v>35.316000000000003</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ref="M17:M20" si="6">E17*1000</f>
-        <v>80</v>
-      </c>
-      <c r="N17">
-        <v>4200</v>
-      </c>
-      <c r="O17">
-        <v>700</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ref="P17:P20" ca="1" si="7">RANDBETWEEN(36,72)*10</f>
-        <v>510</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" ref="Q17:Q20" ca="1" si="8">RANDBETWEEN(2,10)*10</f>
-        <v>20</v>
-      </c>
-      <c r="R17">
-        <f t="shared" ref="R17:R20" si="9">(N17-O17)/M17</f>
-        <v>43.75</v>
-      </c>
-      <c r="S17">
-        <f t="shared" ref="S17:S20" si="10">(N17-O17)/E17</f>
-        <v>43750</v>
-      </c>
-      <c r="T17">
-        <f t="shared" ref="T17:T20" si="11">ROUND(N17/$M17,-2)</f>
-        <v>100</v>
-      </c>
-      <c r="U17">
-        <f t="shared" ref="U17:U20" si="12">ROUND(O17/$M17,-2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18">
-        <v>0.18</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>180000</v>
-      </c>
-      <c r="G18">
-        <v>40</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>70.632000000000005</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>1.9620000000000002E-2</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>1.7658000000000004E-2</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
-        <v>70.632000000000005</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
-        <v>70.632000000000005</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="N18">
-        <v>6000</v>
-      </c>
-      <c r="O18">
-        <v>1600</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="7"/>
-        <v>590</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ca="1" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="9"/>
-        <v>24.444444444444443</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="10"/>
-        <v>24444.444444444445</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19">
-        <v>0.25</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
-      <c r="G19">
-        <v>35</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>85.837500000000006</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>2.384375E-2</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>2.1459374999999999E-2</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>85.837500000000006</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="5"/>
-        <v>85.837500000000006</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="6"/>
-        <v>250</v>
-      </c>
-      <c r="N19">
-        <v>10000</v>
-      </c>
-      <c r="O19">
-        <v>7100</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ca="1" si="7"/>
-        <v>440</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" ca="1" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="9"/>
-        <v>11.6</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="10"/>
-        <v>11600</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20">
-        <v>0.3</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>300000</v>
-      </c>
-      <c r="G20">
-        <v>16</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>47.088000000000001</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>1.308E-2</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
-        <v>1.1771999999999999E-2</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="4"/>
-        <v>47.088000000000001</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
-        <v>47.088000000000001</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="N20">
-        <v>20000</v>
-      </c>
-      <c r="O20">
-        <v>15000</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ca="1" si="7"/>
-        <v>600</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" ca="1" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="9"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="10"/>
-        <v>16666.666666666668</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="12"/>
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -10540,21 +10112,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10565,7 +10137,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10576,7 +10148,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10587,7 +10159,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10598,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -10662,7 +10234,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>0.4</v>
@@ -10682,7 +10254,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -10710,7 +10282,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10737,13 +10309,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
@@ -10752,10 +10324,10 @@
         <v>21</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11016,7 +10588,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -11048,7 +10620,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>27</v>
@@ -11080,13 +10652,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -11131,7 +10703,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -11300,19 +10872,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/simple_hydropower_river_system.xlsx
+++ b/input_data/simple_hydropower_river_system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F3ED48-6707-4F6C-BD3F-D3CF0CCD4A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC407A7E-E943-42FD-9057-548C64FEF0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="171">
   <si>
     <t>node</t>
   </si>
@@ -485,9 +485,6 @@
     <t>use_market_bids</t>
   </si>
   <si>
-    <t>common_timesteps</t>
-  </si>
-  <si>
     <t>common_scenario_name</t>
   </si>
   <si>
@@ -570,6 +567,12 @@
   </si>
   <si>
     <t>group_type</t>
+  </si>
+  <si>
+    <t>common_start_timesteps</t>
+  </si>
+  <si>
+    <t>common_end_timesteps</t>
   </si>
 </sst>
 </file>
@@ -3204,7 +3207,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -5462,10 +5465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82624B08-6930-4D2B-BCBB-C78CE759E704}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5524,7 +5527,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -5532,7 +5535,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -5540,7 +5543,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5548,7 +5551,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>170</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -7487,13 +7498,13 @@
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9212,13 +9223,13 @@
         <v>104</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>131</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>108</v>
@@ -9226,7 +9237,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -9276,7 +9287,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -9326,7 +9337,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -9376,7 +9387,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -9426,7 +9437,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -9566,7 +9577,7 @@
         <v>94</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>98</v>
@@ -9574,7 +9585,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -9627,7 +9638,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -9680,7 +9691,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -9733,7 +9744,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -9786,7 +9797,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -9839,7 +9850,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -9892,7 +9903,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -9945,7 +9956,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -9998,7 +10009,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
@@ -10051,7 +10062,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
@@ -10112,7 +10123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10120,7 +10131,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>117</v>
@@ -10315,7 +10326,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
@@ -10327,7 +10338,7 @@
         <v>135</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
